--- a/downloaded_files/EECS203_Tutorial-35302.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35302.xlsx
@@ -165,13 +165,13 @@
     <x:t>Omar Mohamed Shehata Mohamed Abdelmogheth</x:t>
   </x:si>
   <x:si>
-    <x:t>1230077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid El Taher Ali</x:t>
+    <x:t>1230223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو سامح لبيب عبود الفيومى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr sameh labib</x:t>
   </x:si>
   <x:si>
     <x:t>1230227</x:t>
@@ -228,15 +228,6 @@
     <x:t>Mostafa Hisham Moustafa Mohammed abdelsalam alkabbany</x:t>
   </x:si>
   <x:si>
-    <x:t>1220287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منة الله وائل صادق الصاوى سليمان بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menatallah Wael Sadek El Sawy Badr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230119</x:t>
   </x:si>
   <x:si>
@@ -244,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Nataly Tamer Mohamed Samir Abdou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>
@@ -705,7 +705,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1264,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.67659375</x:v>
+        <x:v>45927.4390959143</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1488,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45914.4113524653</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.4113524653</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/EECS203_Tutorial-35302.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,12 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1230206</x:t>
@@ -395,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1134,9 +1128,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.670731794</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1159,16 +1155,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4252985301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1191,16 +1187,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4252985301</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,16 +1219,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45927.4390959143</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,16 +1251,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4390959143</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,16 +1283,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45909.5058201736</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,16 +1315,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5058201736</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,16 +1347,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,16 +1379,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,16 +1411,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,16 +1443,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45914.4113524653</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,16 +1475,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.4113524653</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,16 +1507,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.4145070602</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,16 +1539,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4145070602</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,16 +1571,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,16 +1603,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.6668789005</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6668789005</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35302.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35302.xlsx
@@ -246,7 +246,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230279</x:t>
